--- a/experiments/verification/Overall_metrics.xlsx
+++ b/experiments/verification/Overall_metrics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Pearson</t>
   </si>
   <si>
-    <t>MBRAE</t>
-  </si>
-  <si>
-    <t>UMBRAE</t>
-  </si>
-  <si>
     <t>ME</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t>STDAE</t>
   </si>
   <si>
-    <t>STDAPE</t>
-  </si>
-  <si>
-    <t>RMSPE</t>
-  </si>
-  <si>
     <t>RMDSPE</t>
   </si>
   <si>
@@ -101,19 +89,7 @@
     <t>RRSE</t>
   </si>
   <si>
-    <t>MRE</t>
-  </si>
-  <si>
     <t>RAE</t>
-  </si>
-  <si>
-    <t>MRAE</t>
-  </si>
-  <si>
-    <t>MDRAE</t>
-  </si>
-  <si>
-    <t>GMRAE</t>
   </si>
   <si>
     <t>MDA</t>
@@ -474,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +585,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.3259909624828753</v>
+        <v>-0.0032092380195001</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -620,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.4836596311582733</v>
+        <v>0.01845292500153807</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -631,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-0.0032092380195001</v>
+        <v>0.00748254693983851</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -642,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.01845292500153807</v>
+        <v>0.0091363545840584</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -653,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.00748254693983851</v>
+        <v>-0.06874455055487595</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -664,7 +640,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.0091363545840584</v>
+        <v>0.01832454344773538</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -675,7 +651,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>-0.06874455055487595</v>
+        <v>0.1143896242779672</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -686,7 +662,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.01832454344773538</v>
+        <v>0.01821499601052521</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -697,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.1143896242779672</v>
+        <v>0.04896450251012849</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -708,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.01821499601052521</v>
+        <v>0.01832454344773538</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -719,7 +695,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.04896450251012849</v>
+        <v>0.2086028672681016</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -730,7 +706,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>1.320365887390056</v>
+        <v>0.118794044986161</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -741,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>1.301554157817719</v>
+        <v>0.118794044986161</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -752,7 +728,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.01832454344773538</v>
+        <v>0.05447730941817391</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -763,94 +739,6 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.2086028672681016</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>0.118794044986161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>0.118794044986161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>-1859266.783387575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>0.05447730941817391</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>2053688.027450607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>0.1858443308908296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>0.2461898786781541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
         <v>0.8974215246636771</v>
       </c>
     </row>
@@ -861,7 +749,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -996,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>0.295915200145531</v>
+        <v>0.03913811787168172</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1007,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>0.4202834661488151</v>
+        <v>0.07489801470732842</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1018,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>0.03913811787168172</v>
+        <v>0.03275196755833063</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1029,7 +917,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>0.07489801470732842</v>
+        <v>0.04048840189898001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1040,7 +928,7 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.03275196755833063</v>
+        <v>0.01857505634608543</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1051,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.04048840189898001</v>
+        <v>0.05487754920428661</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1062,7 +950,7 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.01857505634608543</v>
+        <v>0.08747126983088778</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1073,7 +961,7 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>0.05487754920428661</v>
+        <v>0.0553943134104459</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1084,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>0.08747126983088778</v>
+        <v>0.1758798070248965</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1095,7 +983,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>0.0553943134104459</v>
+        <v>0.05487754920428661</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1106,7 +994,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>0.1758798070248965</v>
+        <v>0.279339179779461</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1117,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>0.1450617507751509</v>
+        <v>0.2132036978173891</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1128,7 +1016,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>0.1298427998477858</v>
+        <v>0.2132036978173891</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1139,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>0.05487754920428661</v>
+        <v>0.1279562067138466</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1150,94 +1038,6 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>0.279339179779461</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>0.2132036978173891</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>0.2132036978173891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>5149738.904214302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>0.1279562067138466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>5149746.117830162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>0.1831522120619871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>0.2108815716179277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
         <v>0.8859304932735426</v>
       </c>
     </row>
